--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -22,9 +22,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區辛亥段四小段06150001地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區辛亥段四小段06150002地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段08020000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段08040000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段08200000地號</t>
+  </si>
+  <si>
+    <t>100000分之528</t>
+  </si>
+  <si>
+    <t>潘瓊琪</t>
+  </si>
+  <si>
+    <t>93年</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1250000(連同建物係同一棟住宅(見後)）</t>
+  </si>
+  <si>
+    <t>1250000(連同建物係同一棟住宅(見後））</t>
+  </si>
+  <si>
+    <t>1250000(3同建物係同一棟住宅(見後））</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>姚文智</t>
+  </si>
+  <si>
+    <t>tmp60da1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,55 +138,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區辛亥段四小段 0615-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區辛亥段四小段 0615-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 0802-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 0804-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 0820-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之528</t>
-  </si>
-  <si>
-    <t>潘瓊琪</t>
-  </si>
-  <si>
-    <t>93年</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1,250,000(連 同建物係同一 棟住宅(見 後)）</t>
-  </si>
-  <si>
-    <t>1’250,000(連 同建物係同一 棟住宅(見 後））</t>
-  </si>
-  <si>
-    <t>1，250,000(連 同建物係同一 棟住宅(見 後)）</t>
-  </si>
-  <si>
-    <t>1,250,000(3 同建物係同一 棟住宅(見 後））</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 02000-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段 02377-000 建號</t>
-  </si>
-  <si>
-    <t>種 類</t>
+    <t>臺北市文山區興泰段一小段02000000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段02377000建號</t>
+  </si>
+  <si>
+    <t>種類</t>
   </si>
   <si>
     <t>總噸數</t>
@@ -114,19 +165,13 @@
     <t>100年</t>
   </si>
   <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
-  </si>
-  <si>
-    <t>1,250，000</t>
-  </si>
-  <si>
-    <t>1(250,000(H 台）</t>
-  </si>
-  <si>
-    <t>150，000(車 位）</t>
+    <t>1250000</t>
+  </si>
+  <si>
+    <t>1(250000(H台）</t>
+  </si>
+  <si>
+    <t>150000(車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -135,7 +180,7 @@
     <t>汽缸容量</t>
   </si>
   <si>
-    <t>HONDA CR-V</t>
+    <t>HONDACRV</t>
   </si>
   <si>
     <t>92年</t>
@@ -144,9 +189,6 @@
     <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>幣別</t>
   </si>
   <si>
@@ -174,22 +216,16 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>姚文智</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
     <t>本欄空白</t>
   </si>
   <si>
-    <t>•</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -267,7 +303,7 @@
     <t>創意企業有限公司</t>
   </si>
   <si>
-    <t>新北市新店區民權路88號 4F</t>
+    <t>新北市新店區民權路88號4F</t>
   </si>
   <si>
     <t>97年</t>
@@ -632,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,135 +696,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>15846.87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>471.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>4039.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -806,25 +968,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -832,25 +994,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>101.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -858,25 +1020,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>14.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -884,25 +1046,25 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>6671.42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -910,25 +1072,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -946,22 +1108,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -969,19 +1131,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
@@ -1002,19 +1164,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1022,16 +1184,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>5289377</v>
@@ -1042,16 +1204,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>310216</v>
@@ -1062,16 +1224,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>2071983</v>
@@ -1082,16 +1244,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>758973</v>
@@ -1112,10 +1274,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1123,11 +1285,9 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,16 +1304,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1161,13 +1321,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>400000</v>
@@ -1178,13 +1338,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2">
         <v>250000</v>
@@ -1195,13 +1355,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>500000</v>
@@ -1222,13 +1382,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1236,13 +1396,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1250,13 +1410,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1277,19 +1437,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1297,22 +1457,22 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>8700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1330,22 +1490,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1353,22 +1513,22 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區辛亥段四小段06150001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區辛亥段四小段06150002地號</t>
@@ -93,12 +96,12 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>1250000(連同建物係同一棟住宅(見後））</t>
+  </si>
+  <si>
     <t>1250000(連同建物係同一棟住宅(見後)）</t>
   </si>
   <si>
-    <t>1250000(連同建物係同一棟住宅(見後））</t>
-  </si>
-  <si>
     <t>1250000(3同建物係同一棟住宅(見後））</t>
   </si>
   <si>
@@ -117,16 +120,34 @@
     <t>tmp60da1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+    <t>臺北市文山區興泰段一小段02000000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1250000</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段一小段02377000建號</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>總噸數</t>
+  </si>
+  <si>
+    <t>184分之2</t>
+  </si>
+  <si>
+    <t>船籍港</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>100年</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -135,69 +156,30 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
+    <t>1(250000(H台）</t>
+  </si>
+  <si>
+    <t>150000(車位）</t>
+  </si>
+  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市文山區興泰段一小段02000000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段一小段02377000建號</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>總噸數</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>184分之2</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>100年</t>
-  </si>
-  <si>
-    <t>1250000</t>
-  </si>
-  <si>
-    <t>1(250000(H台）</t>
-  </si>
-  <si>
-    <t>150000(車位）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
     <t>HONDACRV</t>
   </si>
   <si>
     <t>92年</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>聯邦商業銀行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
@@ -207,78 +189,36 @@
     <t>臺灣銀行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
     <t>本欄空白</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>油畫</t>
   </si>
   <si>
+    <t>2件</t>
+  </si>
+  <si>
     <t>琉璃</t>
   </si>
   <si>
     <t>珠寶</t>
   </si>
   <si>
-    <t>2件</t>
-  </si>
-  <si>
     <t>3件</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>投資型壽險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>投資型壽險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -286,18 +226,6 @@
   </si>
   <si>
     <t>轉貸自合庫</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>創意企業有限公司</t>
@@ -668,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,240 +645,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>1745</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.15312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15846.87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1745</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>83.6714736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>471.97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15846.87</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>1745</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.4920016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4039.42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>471.97</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>1745</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4039.42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1745</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
+      <c r="P5" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>21.3281376</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -968,129 +879,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>101.27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>101.27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6671.42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2">
-        <v>6671.42</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1100,52 +985,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1">
         <v>850000</v>
       </c>
     </row>
@@ -1156,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,98 +1026,78 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5289377</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>5289377</v>
+        <v>310216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>310216</v>
+        <v>2071983</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>2071983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2">
         <v>758973</v>
       </c>
     </row>
@@ -1266,28 +1108,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1304,66 +1135,49 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="E1" s="1">
+        <v>400000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
-        <v>400000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -1374,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1382,41 +1196,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1426,53 +1226,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8700000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1482,53 +1259,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區辛亥段四小段06150001地號</t>
+  </si>
+  <si>
     <t>臺北市大安區辛亥段四小段06150002地號</t>
   </si>
   <si>
@@ -96,12 +99,12 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>1250000(連同建物係同一棟住宅(見後)）</t>
+  </si>
+  <si>
     <t>1250000(連同建物係同一棟住宅(見後））</t>
   </si>
   <si>
-    <t>1250000(連同建物係同一棟住宅(見後)）</t>
-  </si>
-  <si>
     <t>1250000(3同建物係同一棟住宅(見後））</t>
   </si>
   <si>
@@ -123,46 +126,25 @@
     <t>臺北市文山區興泰段一小段02000000建號</t>
   </si>
   <si>
+    <t>臺北市文山區興泰段一小段02377000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>184分之2</t>
+  </si>
+  <si>
+    <t>100年</t>
+  </si>
+  <si>
     <t>1250000</t>
   </si>
   <si>
-    <t>臺北市文山區興泰段一小段02377000建號</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>總噸數</t>
-  </si>
-  <si>
-    <t>184分之2</t>
-  </si>
-  <si>
-    <t>船籍港</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>100年</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
     <t>1(250000(H台）</t>
   </si>
   <si>
     <t>150000(車位）</t>
-  </si>
-  <si>
-    <t>取得價額</t>
   </si>
   <si>
     <t>HONDACRV</t>
@@ -596,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,213 +636,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
+        <v>202</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>1745</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.15312</v>
+        <v>1.06656</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>15846.87</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>1745</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q3" s="2">
-        <v>83.6714736</v>
+        <v>0.15312</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>471.97</v>
+        <v>15846.87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>1745</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.4920016</v>
+        <v>83.6714736</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>4039.42</v>
+        <v>471.97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>1745</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.00528</v>
       </c>
       <c r="Q5" s="2">
+        <v>2.4920016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4039.42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00528</v>
+      </c>
+      <c r="Q6" s="2">
         <v>21.3281376</v>
       </c>
     </row>
@@ -871,111 +906,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>101.27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>101.27</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2">
+        <v>6671.42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="O4" s="2">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6671.42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
+      <c r="P4" s="2">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>72.5154347826087</v>
       </c>
     </row>
   </sheetData>
@@ -985,29 +1128,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1">
         <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
         <v>850000</v>
       </c>
     </row>
@@ -1018,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1026,16 +1192,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1">
         <v>5289377</v>
@@ -1043,61 +1209,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>310216</v>
+        <v>5289377</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>2071983</v>
+        <v>310216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
+        <v>2071983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
         <v>758973</v>
       </c>
     </row>
@@ -1108,17 +1294,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1127,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,13 +1330,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1">
         <v>400000</v>
@@ -1149,35 +1344,52 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
-        <v>250000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -1188,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,27 +1408,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1226,30 +1452,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>8700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8700000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1259,30 +1508,53 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>150000(車位）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>HONDACRV</t>
@@ -1128,38 +1131,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
-        <v>850000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1168,13 +1192,34 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1192,13 +1237,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1212,13 +1257,13 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1232,13 +1277,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1252,13 +1297,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1272,13 +1317,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1302,7 +1347,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1311,7 +1356,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1330,10 +1375,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1347,10 +1392,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1364,10 +1409,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1381,10 +1426,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1408,10 +1453,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1422,10 +1467,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1436,10 +1481,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1460,22 +1505,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>8700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1483,22 +1528,22 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>8700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1519,19 +1564,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1542,19 +1587,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -147,6 +147,9 @@
     <t>150000(車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>92年</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>聯邦商業銀行</t>
@@ -991,7 +997,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -1044,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1097,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1183,7 +1189,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1192,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1201,7 +1207,7 @@
         <v>850000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1237,13 +1243,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1257,13 +1263,13 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1277,13 +1283,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1297,13 +1303,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1317,13 +1323,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1347,7 +1353,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1356,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1375,10 +1381,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1392,10 +1398,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1409,10 +1415,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1426,10 +1432,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1453,10 +1459,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1467,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1481,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1505,22 +1511,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>8700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1528,22 +1534,22 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>8700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1564,19 +1570,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1587,19 +1593,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -162,25 +162,37 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>聯邦商業銀行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>本欄空白</t>
@@ -1235,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1252,24 +1264,45 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5289377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1277,19 +1310,40 @@
       <c r="F2" s="2">
         <v>5289377</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1297,19 +1351,40 @@
       <c r="F3" s="2">
         <v>310216</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1317,25 +1392,67 @@
       <c r="F4" s="2">
         <v>2071983</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>758973</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1745</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1470,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1362,7 +1479,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1381,10 +1498,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1398,10 +1515,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1415,10 +1532,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1432,10 +1549,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1459,10 +1576,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1473,10 +1590,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1487,10 +1604,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1511,22 +1628,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1">
         <v>8700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1534,22 +1651,22 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>8700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1570,19 +1687,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1593,19 +1710,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -11,18 +11,17 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="債務" sheetId="8" r:id="rId8"/>
-    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -195,22 +194,25 @@
     <t>deposit</t>
   </si>
   <si>
-    <t>本欄空白</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>油畫</t>
   </si>
   <si>
+    <t>琉璃</t>
+  </si>
+  <si>
+    <t>珠寶</t>
+  </si>
+  <si>
     <t>2件</t>
   </si>
   <si>
-    <t>琉璃</t>
-  </si>
-  <si>
-    <t>珠寶</t>
-  </si>
-  <si>
     <t>3件</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1462,26 +1464,160 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1745</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1489,84 +1625,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1576,10 +1634,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -1590,10 +1648,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1604,13 +1662,69 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8700000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8700000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1628,78 +1742,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1">
-        <v>8700000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8700000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1">
         <v>2500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1710,19 +1768,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
+++ b/legislator/property/output/normal/姚文智_2012-04-30_財產申報表_tmp60da1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -212,16 +212,28 @@
     <t>3件</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>投資型壽險</t>
   </si>
   <si>
-    <t>南山人壽</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -233,6 +245,12 @@
     <t>轉貸自合庫</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>創意企業有限公司</t>
   </si>
   <si>
@@ -243,6 +261,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1626,38 +1647,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>77</v>
       </c>
@@ -1665,10 +1728,31 @@
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1745</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1678,38 +1762,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1">
-        <v>8700000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1721,10 +1826,31 @@
         <v>8700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1734,33 +1860,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2500000</v>
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>92</v>
       </c>
@@ -1768,19 +1915,40 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>2500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1745</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
